--- a/biology/Écologie/Stephan_Harding/Stephan_Harding.xlsx
+++ b/biology/Écologie/Stephan_Harding/Stephan_Harding.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Stephan Harding (né en 1953 au Venezuela) est un spécialiste des sciences holistiques. Il enseigne la théorie Gaïa et l'écologie profonde au Schumacher College. Il a collaboré avec James Lovelock.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Venu à l'âge de 6 ans en Angleterre, il a étudié à l'université de Durham puis a fait son doctorat sur le comportement écologique du cerf muntjac à l'université d'Oxford.
 Avant d'intégrer Durham, il a passé une année à la Sengwa Research Station au Zimbabwe (actuelle Rhodésie), et a travaillé sur l'écologie du warthog. Il participa à une expédition au Manu National Park au Pérou. Après ses études universitaires, il retourna au Venezuela il devient assistant au Smithsonian Institute, étudiant la diversité des mammifères au sein de la forêt équatoriale.
@@ -543,7 +557,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Animate Earth: Science, Intuition, and Gaia (avec Lynn Margulis)
  Portail de l’écologie                     </t>
